--- a/data/trans_orig/P14_x_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A400E0-E152-40AB-92D9-DEF9F88336CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A343BCAD-D4BF-44CF-B66F-0158F01D58A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B612490-B72E-42DA-9F12-2CFA665E6764}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E3E0FAC-FD7D-4B3D-8022-41B58574250F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="390">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -311,61 +311,61 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>4,79%</t>
@@ -374,19 +374,16 @@
     <t>9,71%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>7,18%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>96,89%</t>
@@ -395,838 +392,823 @@
     <t>95,21%</t>
   </si>
   <si>
-    <t>98,29%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>92,82%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4266C16E-D65C-419C-AFF8-93D7FFA94C55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD7429A-84A6-45FF-BD4F-5DD50215152A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3169,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90544D34-85DB-45D0-B0B2-DAF2E429B923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505CE9A2-AF77-4CFE-9B9A-119716412E41}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4682,7 +4664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D30A71-D9F2-40C8-B081-01D4EDB13417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A528B892-A85A-499B-A194-ABEB414F474E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4982,7 +4964,7 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -4991,13 +4973,13 @@
         <v>66418</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +4994,13 @@
         <v>486946</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>438</v>
@@ -5027,13 +5009,13 @@
         <v>472295</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>898</v>
@@ -5042,13 +5024,13 @@
         <v>959241</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5098,13 @@
         <v>4152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5131,13 +5113,13 @@
         <v>26424</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5146,13 +5128,13 @@
         <v>30576</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5149,13 @@
         <v>314413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>306</v>
@@ -5182,13 +5164,13 @@
         <v>309885</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>637</v>
@@ -5197,13 +5179,13 @@
         <v>624298</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5253,13 @@
         <v>10711</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5286,13 +5268,13 @@
         <v>25836</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5301,13 +5283,13 @@
         <v>36547</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5304,13 @@
         <v>359253</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5337,13 +5319,13 @@
         <v>361447</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -5352,13 +5334,13 @@
         <v>720700</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5408,13 @@
         <v>11606</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5441,13 +5423,13 @@
         <v>27885</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -5456,13 +5438,13 @@
         <v>39491</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5459,13 @@
         <v>199615</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -5492,13 +5474,13 @@
         <v>190702</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -5507,13 +5489,13 @@
         <v>390317</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5563,13 @@
         <v>6687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -5596,13 +5578,13 @@
         <v>34629</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -5611,13 +5593,13 @@
         <v>41316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5614,13 @@
         <v>256436</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -5647,13 +5629,13 @@
         <v>238486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>482</v>
@@ -5662,13 +5644,13 @@
         <v>494922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5718,13 @@
         <v>14681</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5751,13 +5733,13 @@
         <v>58730</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -5766,13 +5748,13 @@
         <v>73411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5769,13 @@
         <v>641877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H23" s="7">
         <v>594</v>
@@ -5802,13 +5784,13 @@
         <v>632564</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -5817,13 +5799,13 @@
         <v>1274441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5873,13 @@
         <v>32608</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -5906,13 +5888,13 @@
         <v>95223</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5921,13 +5903,13 @@
         <v>127831</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5924,13 @@
         <v>745975</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H26" s="7">
         <v>675</v>
@@ -5957,13 +5939,13 @@
         <v>730944</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M26" s="7">
         <v>1392</v>
@@ -5972,13 +5954,13 @@
         <v>1476919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6028,13 @@
         <v>110570</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H28" s="7">
         <v>328</v>
@@ -6061,13 +6043,13 @@
         <v>361195</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>435</v>
@@ -6076,13 +6058,13 @@
         <v>471765</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6079,13 @@
         <v>3283780</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>3010</v>
@@ -6112,13 +6094,13 @@
         <v>3183347</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6134</v>
@@ -6127,13 +6109,13 @@
         <v>6467127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,7 +6195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343F932-8387-47C7-9B8E-BBBB70C8CF0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2814768-0D00-4E4A-B928-F078C8E41C43}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6230,7 +6212,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6337,13 +6319,13 @@
         <v>4939</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -6352,13 +6334,13 @@
         <v>14157</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -6367,13 +6349,13 @@
         <v>19095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,13 +6370,13 @@
         <v>255359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>506</v>
@@ -6403,13 +6385,13 @@
         <v>257246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>831</v>
@@ -6418,13 +6400,13 @@
         <v>512605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6474,13 @@
         <v>29736</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -6507,13 +6489,13 @@
         <v>75775</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>131</v>
@@ -6522,13 +6504,13 @@
         <v>105511</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6525,13 @@
         <v>489561</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>611</v>
@@ -6558,13 +6540,13 @@
         <v>478791</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M8" s="7">
         <v>968</v>
@@ -6573,13 +6555,13 @@
         <v>968353</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6629,13 @@
         <v>28240</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -6662,13 +6644,13 @@
         <v>56928</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6677,13 +6659,13 @@
         <v>85167</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6680,13 @@
         <v>294000</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -6713,13 +6695,13 @@
         <v>316356</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>770</v>
@@ -6728,13 +6710,13 @@
         <v>610357</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6784,13 @@
         <v>26403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -6817,13 +6799,13 @@
         <v>41808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -6832,13 +6814,13 @@
         <v>68211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6835,13 @@
         <v>295837</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>531</v>
@@ -6868,13 +6850,13 @@
         <v>386748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>798</v>
@@ -6883,13 +6865,13 @@
         <v>682585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6939,13 @@
         <v>3319</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6972,13 +6954,13 @@
         <v>18139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6987,13 +6969,13 @@
         <v>21458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +6990,13 @@
         <v>193429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7">
         <v>458</v>
@@ -7023,13 +7005,13 @@
         <v>241374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>732</v>
@@ -7038,13 +7020,13 @@
         <v>434802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7094,13 @@
         <v>28515</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -7127,13 +7109,13 @@
         <v>41804</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -7142,13 +7124,13 @@
         <v>70319</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7145,13 @@
         <v>248708</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>384</v>
@@ -7178,13 +7160,13 @@
         <v>233818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -7193,13 +7175,13 @@
         <v>482526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7249,13 @@
         <v>46347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -7282,13 +7264,13 @@
         <v>107281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M22" s="7">
         <v>193</v>
@@ -7297,13 +7279,13 @@
         <v>153627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7300,13 @@
         <v>581407</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
@@ -7333,13 +7315,13 @@
         <v>696922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M23" s="7">
         <v>1366</v>
@@ -7348,13 +7330,13 @@
         <v>1278330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,13 +7404,13 @@
         <v>41767</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -7437,13 +7419,13 @@
         <v>100267</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -7452,13 +7434,13 @@
         <v>142035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7455,13 @@
         <v>817661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>367</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H26" s="7">
         <v>927</v>
@@ -7488,13 +7470,13 @@
         <v>768167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M26" s="7">
         <v>1649</v>
@@ -7503,13 +7485,13 @@
         <v>1585827</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7559,13 @@
         <v>209266</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>380</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H28" s="7">
         <v>692</v>
@@ -7592,13 +7574,13 @@
         <v>456158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M28" s="7">
         <v>915</v>
@@ -7607,13 +7589,13 @@
         <v>665425</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7610,13 @@
         <v>3175962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>388</v>
+        <v>240</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H29" s="7">
         <v>4675</v>
@@ -7643,28 +7625,28 @@
         <v>3379423</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="M29" s="7">
         <v>7828</v>
       </c>
       <c r="N29" s="7">
-        <v>6555384</v>
+        <v>6555383</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>225</v>
+        <v>387</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,7 +7688,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P14_x_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A343BCAD-D4BF-44CF-B66F-0158F01D58A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E7C3F5-B777-48AE-949D-9E9299230627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E3E0FAC-FD7D-4B3D-8022-41B58574250F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD6A62DB-1C56-4371-9838-79D257679720}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="402">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -305,886 +305,922 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>93,82%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
   </si>
   <si>
     <t>92,9%</t>
@@ -1620,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD7429A-84A6-45FF-BD4F-5DD50215152A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65F5D8-F9EF-4CDA-BEEE-AA481C0F68F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3032,7 +3068,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3062,7 +3098,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3083,7 +3119,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3113,7 +3149,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3151,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505CE9A2-AF77-4CFE-9B9A-119716412E41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1480846D-B04D-43F6-817E-FCE5453CE348}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4664,7 +4700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A528B892-A85A-499B-A194-ABEB414F474E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6BD829-2E12-43C8-A7E5-ACB82B5611DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4964,7 +5000,7 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -4973,13 +5009,13 @@
         <v>66418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +5030,13 @@
         <v>486946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>438</v>
@@ -5009,13 +5045,13 @@
         <v>472295</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>898</v>
@@ -5024,13 +5060,13 @@
         <v>959241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5134,13 @@
         <v>4152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5113,13 +5149,13 @@
         <v>26424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5128,13 +5164,13 @@
         <v>30576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5185,13 @@
         <v>314413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>306</v>
@@ -5164,13 +5200,13 @@
         <v>309885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>637</v>
@@ -5179,13 +5215,13 @@
         <v>624298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5289,13 @@
         <v>10711</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5268,13 +5304,13 @@
         <v>25836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5283,13 +5319,13 @@
         <v>36547</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5340,13 @@
         <v>359253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5319,13 +5355,13 @@
         <v>361447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -5334,13 +5370,13 @@
         <v>720700</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5444,13 @@
         <v>11606</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5423,13 +5459,13 @@
         <v>27885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -5438,13 +5474,13 @@
         <v>39491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5495,13 @@
         <v>199615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -5474,13 +5510,13 @@
         <v>190702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -5489,13 +5525,13 @@
         <v>390317</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5599,13 @@
         <v>6687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -5578,13 +5614,13 @@
         <v>34629</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -5593,13 +5629,13 @@
         <v>41316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5650,13 @@
         <v>256436</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -5629,13 +5665,13 @@
         <v>238486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>482</v>
@@ -5644,13 +5680,13 @@
         <v>494922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5754,13 @@
         <v>14681</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5733,13 +5769,13 @@
         <v>58730</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -5748,13 +5784,13 @@
         <v>73411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5805,13 @@
         <v>641877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>594</v>
@@ -5784,13 +5820,13 @@
         <v>632564</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -5799,13 +5835,13 @@
         <v>1274441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5909,13 @@
         <v>32608</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -5888,13 +5924,13 @@
         <v>95223</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5903,13 +5939,13 @@
         <v>127831</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5960,13 @@
         <v>745975</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>675</v>
@@ -5939,13 +5975,13 @@
         <v>730944</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M26" s="7">
         <v>1392</v>
@@ -5954,13 +5990,13 @@
         <v>1476919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6064,13 @@
         <v>110570</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H28" s="7">
         <v>328</v>
@@ -6043,13 +6079,13 @@
         <v>361195</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M28" s="7">
         <v>435</v>
@@ -6058,13 +6094,13 @@
         <v>471765</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6115,13 @@
         <v>3283780</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>3010</v>
@@ -6094,13 +6130,13 @@
         <v>3183347</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="M29" s="7">
         <v>6134</v>
@@ -6109,13 +6145,13 @@
         <v>6467127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2814768-0D00-4E4A-B928-F078C8E41C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8470B1B4-670C-4EB4-B3D6-A59D178648B1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6212,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6319,13 +6355,13 @@
         <v>4939</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -6334,13 +6370,13 @@
         <v>14157</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -6349,13 +6385,13 @@
         <v>19095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6406,13 @@
         <v>255359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>506</v>
@@ -6385,13 +6421,13 @@
         <v>257246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>831</v>
@@ -6400,13 +6436,13 @@
         <v>512605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6510,13 @@
         <v>29736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -6489,13 +6525,13 @@
         <v>75775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>131</v>
@@ -6504,13 +6540,13 @@
         <v>105511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,13 +6561,13 @@
         <v>489561</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>611</v>
@@ -6540,13 +6576,13 @@
         <v>478791</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>968</v>
@@ -6555,13 +6591,13 @@
         <v>968353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6665,13 @@
         <v>28240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -6644,13 +6680,13 @@
         <v>56928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6659,13 +6695,13 @@
         <v>85167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6716,13 @@
         <v>294000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -6695,13 +6731,13 @@
         <v>316356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M11" s="7">
         <v>770</v>
@@ -6710,13 +6746,13 @@
         <v>610357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6820,13 @@
         <v>26403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -6799,13 +6835,13 @@
         <v>41808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -6814,13 +6850,13 @@
         <v>68211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6871,13 @@
         <v>295837</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>531</v>
@@ -6850,13 +6886,13 @@
         <v>386748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>798</v>
@@ -6865,13 +6901,13 @@
         <v>682585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6975,13 @@
         <v>3319</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6954,13 +6990,13 @@
         <v>18139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6969,13 +7005,13 @@
         <v>21458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,10 +7026,10 @@
         <v>193429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>33</v>
@@ -7005,13 +7041,13 @@
         <v>241374</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>732</v>
@@ -7020,13 +7056,13 @@
         <v>434802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7130,13 @@
         <v>28515</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -7109,13 +7145,13 @@
         <v>41804</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -7124,13 +7160,13 @@
         <v>70319</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7181,13 @@
         <v>248708</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>384</v>
@@ -7160,13 +7196,13 @@
         <v>233818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -7175,13 +7211,13 @@
         <v>482526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7285,13 @@
         <v>46347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -7264,13 +7300,13 @@
         <v>107281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>193</v>
@@ -7279,13 +7315,13 @@
         <v>153627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7336,13 @@
         <v>581407</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
@@ -7315,13 +7351,13 @@
         <v>696922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M23" s="7">
         <v>1366</v>
@@ -7330,13 +7366,13 @@
         <v>1278330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7440,13 @@
         <v>41767</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -7419,13 +7455,13 @@
         <v>100267</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -7434,13 +7470,13 @@
         <v>142035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7491,13 @@
         <v>817661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="H26" s="7">
         <v>927</v>
@@ -7470,13 +7506,13 @@
         <v>768167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>1649</v>
@@ -7485,13 +7521,13 @@
         <v>1585827</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,13 +7595,13 @@
         <v>209266</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>231</v>
+        <v>384</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="H28" s="7">
         <v>692</v>
@@ -7574,13 +7610,13 @@
         <v>456158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="M28" s="7">
         <v>915</v>
@@ -7589,13 +7625,13 @@
         <v>665425</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,13 +7646,13 @@
         <v>3175962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>240</v>
+        <v>393</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="H29" s="7">
         <v>4675</v>
@@ -7625,13 +7661,13 @@
         <v>3379423</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="M29" s="7">
         <v>7828</v>
@@ -7640,13 +7676,13 @@
         <v>6555383</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14_x_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E7C3F5-B777-48AE-949D-9E9299230627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9737E60F-C43A-43CA-9793-E5F41CAF225D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD6A62DB-1C56-4371-9838-79D257679720}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3A0DB09-87C1-4B76-BCBA-7EE971A6F0B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="396">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -311,940 +311,922 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>7,2%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>94,7%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65F5D8-F9EF-4CDA-BEEE-AA481C0F68F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781B7DBF-0800-45FA-9BBB-B001C73499AD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3068,7 +3050,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3098,7 +3080,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3119,7 +3101,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3149,7 +3131,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3187,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1480846D-B04D-43F6-817E-FCE5453CE348}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89766A6-74FE-442C-9E79-815B60D242ED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4700,7 +4682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6BD829-2E12-43C8-A7E5-ACB82B5611DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6770261-E81F-445E-9AA1-AF46CD1F4E72}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5137,10 +5119,10 @@
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5149,13 +5131,13 @@
         <v>26424</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5164,13 +5146,13 @@
         <v>30576</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5167,13 @@
         <v>314413</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>306</v>
@@ -5200,13 +5182,13 @@
         <v>309885</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>637</v>
@@ -5215,13 +5197,13 @@
         <v>624298</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5271,13 @@
         <v>10711</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5304,13 +5286,13 @@
         <v>25836</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5319,13 +5301,13 @@
         <v>36547</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5322,13 @@
         <v>359253</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5355,13 +5337,13 @@
         <v>361447</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -5370,10 +5352,10 @@
         <v>720700</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>158</v>
@@ -5787,10 +5769,10 @@
         <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5787,13 @@
         <v>641877</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>594</v>
@@ -5820,13 +5802,13 @@
         <v>632564</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -5835,13 +5817,13 @@
         <v>1274441</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5891,13 @@
         <v>32608</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -5924,13 +5906,13 @@
         <v>95223</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5939,13 +5921,13 @@
         <v>127831</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5942,13 @@
         <v>745975</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>675</v>
@@ -5975,13 +5957,13 @@
         <v>730944</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M26" s="7">
         <v>1392</v>
@@ -5990,13 +5972,13 @@
         <v>1476919</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6046,13 @@
         <v>110570</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H28" s="7">
         <v>328</v>
@@ -6079,13 +6061,13 @@
         <v>361195</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M28" s="7">
         <v>435</v>
@@ -6094,13 +6076,13 @@
         <v>471765</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6097,13 @@
         <v>3283780</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>3010</v>
@@ -6130,13 +6112,13 @@
         <v>3183347</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M29" s="7">
         <v>6134</v>
@@ -6145,13 +6127,13 @@
         <v>6467127</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8470B1B4-670C-4EB4-B3D6-A59D178648B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D554FC1-5978-4BC7-A4CE-EB0CE3235633}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6248,7 +6230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6355,13 +6337,13 @@
         <v>4939</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -6370,13 +6352,13 @@
         <v>14157</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -6385,13 +6367,13 @@
         <v>19095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6388,13 @@
         <v>255359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>506</v>
@@ -6421,13 +6403,13 @@
         <v>257246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>831</v>
@@ -6436,13 +6418,13 @@
         <v>512605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6492,13 @@
         <v>29736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -6525,13 +6507,13 @@
         <v>75775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>131</v>
@@ -6540,13 +6522,13 @@
         <v>105511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6543,13 @@
         <v>489561</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>611</v>
@@ -6576,13 +6558,13 @@
         <v>478791</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M8" s="7">
         <v>968</v>
@@ -6591,13 +6573,13 @@
         <v>968353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6647,13 @@
         <v>28240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -6680,13 +6662,13 @@
         <v>56928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6695,13 +6677,13 @@
         <v>85167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6698,13 @@
         <v>294000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -6731,13 +6713,13 @@
         <v>316356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>770</v>
@@ -6746,13 +6728,13 @@
         <v>610357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6802,13 @@
         <v>26403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -6835,13 +6817,13 @@
         <v>41808</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -6850,13 +6832,13 @@
         <v>68211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6853,13 @@
         <v>295837</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="H14" s="7">
         <v>531</v>
@@ -6886,13 +6868,13 @@
         <v>386748</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>798</v>
@@ -6901,10 +6883,10 @@
         <v>682585</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>315</v>
@@ -6978,7 +6960,7 @@
         <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>317</v>
@@ -7008,10 +6990,10 @@
         <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7008,13 @@
         <v>193429</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>458</v>
@@ -7041,13 +7023,13 @@
         <v>241374</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>732</v>
@@ -7056,13 +7038,13 @@
         <v>434802</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7112,13 @@
         <v>28515</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -7145,13 +7127,13 @@
         <v>41804</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -7160,13 +7142,13 @@
         <v>70319</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7163,13 @@
         <v>248708</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>384</v>
@@ -7196,13 +7178,13 @@
         <v>233818</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>714</v>
@@ -7211,13 +7193,13 @@
         <v>482526</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,13 +7267,13 @@
         <v>46347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -7300,13 +7282,13 @@
         <v>107281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>193</v>
@@ -7315,13 +7297,13 @@
         <v>153627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7318,13 @@
         <v>581407</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
         <v>813</v>
@@ -7351,13 +7333,13 @@
         <v>696922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M23" s="7">
         <v>1366</v>
@@ -7366,13 +7348,13 @@
         <v>1278330</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7422,13 @@
         <v>41767</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>370</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -7455,13 +7437,13 @@
         <v>100267</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M25" s="7">
         <v>175</v>
@@ -7470,13 +7452,13 @@
         <v>142035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7473,13 @@
         <v>817661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>377</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H26" s="7">
         <v>927</v>
@@ -7506,13 +7488,13 @@
         <v>768167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M26" s="7">
         <v>1649</v>
@@ -7521,13 +7503,13 @@
         <v>1585827</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7577,13 @@
         <v>209266</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H28" s="7">
         <v>692</v>
@@ -7610,13 +7592,13 @@
         <v>456158</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M28" s="7">
         <v>915</v>
@@ -7625,13 +7607,13 @@
         <v>665425</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7628,13 @@
         <v>3175962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H29" s="7">
         <v>4675</v>
@@ -7661,28 +7643,28 @@
         <v>3379423</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>7828</v>
       </c>
       <c r="N29" s="7">
-        <v>6555383</v>
+        <v>6555384</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>399</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,7 +7706,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
